--- a/张树茂/购物车/【校区】-组员进度表.xlsx
+++ b/张树茂/购物车/【校区】-组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期</t>
   </si>
@@ -43,61 +43,76 @@
     <t>确定了每人的任务，写了部分页面的样式</t>
   </si>
   <si>
+    <t>2017.10.30 17:00</t>
+  </si>
+  <si>
+    <t>后台数据获取上存在问题</t>
+  </si>
+  <si>
+    <t>复习了css属性和代码编写基础</t>
+  </si>
+  <si>
+    <t>第二天</t>
+  </si>
+  <si>
+    <t>编写静态页面样式</t>
+  </si>
+  <si>
+    <t>基本完成了相关静态样式的编写</t>
+  </si>
+  <si>
     <t>2017.10.31 17:00</t>
   </si>
   <si>
-    <t>后台数据获取上存在问题</t>
-  </si>
-  <si>
-    <t>复习了css属性和代码编写基础</t>
-  </si>
-  <si>
-    <t>第二天</t>
-  </si>
-  <si>
-    <t>编写静态页面样式</t>
-  </si>
-  <si>
-    <t>基本完成了相关静态样式的编写</t>
+    <t>后台数据获取不正确</t>
+  </si>
+  <si>
+    <t>复习了css属性和jQuery</t>
+  </si>
+  <si>
+    <t>第三天</t>
+  </si>
+  <si>
+    <t>添加属性和后台数据获取</t>
+  </si>
+  <si>
+    <t>首页没有写完，无法拉取购物车相关相关数据，未完成本日任务</t>
   </si>
   <si>
     <t>2017.11.1 17:00</t>
   </si>
   <si>
-    <t>后台数据获取不正确</t>
-  </si>
-  <si>
-    <t>复习了css属性和jQuery</t>
-  </si>
-  <si>
-    <t>第三天</t>
-  </si>
-  <si>
-    <t>添加属性和后台数据获取</t>
-  </si>
-  <si>
-    <t>首页没有写完，无法拉取购物车相关相关数据，未完成本日任务</t>
+    <t>登录界面，显示数据发送成功，但无法在别的页面拉取数据</t>
+  </si>
+  <si>
+    <t>发现对ajax的了解不深</t>
+  </si>
+  <si>
+    <t>第四天</t>
+  </si>
+  <si>
+    <t>添加与后台的互动</t>
+  </si>
+  <si>
+    <t>基本完成了页面，但仍有部分功能未实现</t>
   </si>
   <si>
     <t>2017.11.2 17:00</t>
   </si>
   <si>
-    <t>登录界面，显示数据发送成功，但无法在别的页面拉取数据</t>
-  </si>
-  <si>
-    <t>发现对ajax的了解不深</t>
-  </si>
-  <si>
-    <t>第四天</t>
-  </si>
-  <si>
-    <t>添加与后台的互动</t>
+    <t>无法将页面上线</t>
+  </si>
+  <si>
+    <t>发现了自己在ajax和jQuery方面的不足</t>
   </si>
   <si>
     <t>第五天</t>
   </si>
   <si>
     <t>答辩</t>
+  </si>
+  <si>
+    <t>无法</t>
   </si>
 </sst>
 </file>
@@ -105,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -248,23 +263,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +306,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,30 +342,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,42 +354,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,6 +408,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,7 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,48 +475,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,115 +605,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,13 +722,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.725" customWidth="1"/>
     <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
@@ -1185,22 +1200,35 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
